--- a/biology/Médecine/Léon_Dufourmentel/Léon_Dufourmentel.xlsx
+++ b/biology/Médecine/Léon_Dufourmentel/Léon_Dufourmentel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Dufourmentel</t>
+          <t>Léon_Dufourmentel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léon Baptiste Henri Dufourmentel, né le 18 mars 1884 à Senlis[1] et mort le 29 juillet 1957, est un chirurgien français, spécialisé dans la chirurgie maxillo-faciale, chef de file de la chirurgie reconstructrice[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léon Baptiste Henri Dufourmentel, né le 18 mars 1884 à Senlis et mort le 29 juillet 1957, est un chirurgien français, spécialisé dans la chirurgie maxillo-faciale, chef de file de la chirurgie reconstructrice. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Dufourmentel</t>
+          <t>Léon_Dufourmentel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un négociant, Léon Dufourmentel devient interne des hôpitaux de Paris, puis chef de clinique de la faculté de médecine de Paris. Il est le gendre de l'anatomiste Pierre Sebileau et le père du chirurgien plasticien Claude Dufourmentel (ancien chef de service à l'Hôpital Saint-Louis)et de Philippe Dufourmentel (ancien chef de service d’otorhinolaryngologie des Hôpitaux de la région parisienne ) et Gérard Dufourmentel chirurgien (chef de service à l’hôpital de Vichy ) 
 Pendant la Première Guerre mondiale, il est chargé de soigner des Gueules cassées, et, étant à l'origine de la création d'unités de chirurgie maxillofaciale, il trouve un procédé permettant de combler les trous de chair : il prélevait un lambeau de cuir chevelu (appelé lambeau Dufourmentel) sur le crâne des patients et les greffait essentiellement au niveau du menton. Il n’y avait, de ce fait, pas de rejet possible. Il a le premier l'idée d'utiliser des inclusions prothétiques vers 1930 - des implants d'ivoire, de caoutchouc au niveau du nez.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Dufourmentel</t>
+          <t>Léon_Dufourmentel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Loi de Semon-Rosenbach dans les paralysies récurrentielles, 1914.
 La Chirurgie faciale aux États-Unis.
